--- a/FashionShop/src/산출물/쇼핑몰DB.xlsx
+++ b/FashionShop/src/산출물/쇼핑몰DB.xlsx
@@ -238,14 +238,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>rank ==순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subcategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>quantity</t>
-  </si>
-  <si>
-    <t>rank ==순서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subcategory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -687,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -719,7 +720,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="7"/>
       <c r="F3" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -762,7 +763,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
@@ -1287,7 +1288,7 @@
         <v>30</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.4">

--- a/FashionShop/src/산출물/쇼핑몰DB.xlsx
+++ b/FashionShop/src/산출물/쇼핑몰DB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>topcategory</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,6 +247,14 @@
   </si>
   <si>
     <t>quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alter table product add filename varchar(50);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -291,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -351,13 +359,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -373,37 +401,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -686,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O37"/>
+  <dimension ref="B1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -703,37 +737,39 @@
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.8984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="7"/>
-      <c r="F3" s="5" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="F3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="5" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="J3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -745,17 +781,18 @@
       <c r="L4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -768,7 +805,7 @@
       <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -777,7 +814,7 @@
       <c r="J5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="2" t="s">
@@ -792,8 +829,14 @@
       <c r="O5" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="P5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" s="2">
         <v>1</v>
       </c>
@@ -822,8 +865,9 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -852,8 +896,9 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -882,8 +927,9 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B9" s="2">
         <v>4</v>
       </c>
@@ -912,112 +958,117 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F10" s="2">
         <v>5</v>
       </c>
-      <c r="G10" s="9">
-        <v>2</v>
-      </c>
-      <c r="H10" s="9" t="s">
+      <c r="G10" s="5">
+        <v>2</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="2">
         <v>5</v>
       </c>
-      <c r="K10" s="9">
-        <v>2</v>
-      </c>
-      <c r="L10" s="9" t="s">
+      <c r="K10" s="5">
+        <v>2</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F11" s="2">
         <v>6</v>
       </c>
-      <c r="G11" s="9">
-        <v>2</v>
-      </c>
-      <c r="H11" s="9" t="s">
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="J11" s="2">
         <v>6</v>
       </c>
-      <c r="K11" s="9">
-        <v>2</v>
-      </c>
-      <c r="L11" s="9" t="s">
+      <c r="K11" s="5">
+        <v>2</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="2">
         <v>7</v>
       </c>
-      <c r="G12" s="9">
-        <v>2</v>
-      </c>
-      <c r="H12" s="9" t="s">
+      <c r="G12" s="5">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="J12" s="2">
         <v>7</v>
       </c>
-      <c r="K12" s="9">
-        <v>2</v>
-      </c>
-      <c r="L12" s="9" t="s">
+      <c r="K12" s="5">
+        <v>2</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="6" t="s">
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
       <c r="F13" s="2">
         <v>8</v>
       </c>
-      <c r="G13" s="9">
-        <v>2</v>
-      </c>
-      <c r="H13" s="9" t="s">
+      <c r="G13" s="5">
+        <v>2</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J13" s="2">
         <v>8</v>
       </c>
-      <c r="K13" s="9">
-        <v>2</v>
-      </c>
-      <c r="L13" s="9" t="s">
+      <c r="K13" s="5">
+        <v>2</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1044,8 +1095,9 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B15" s="2">
         <v>1</v>
       </c>
@@ -1076,8 +1128,9 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B16" s="2">
         <v>2</v>
       </c>
@@ -1108,8 +1161,9 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B17" s="2">
         <v>3</v>
       </c>
@@ -1140,8 +1194,9 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B18" s="2">
         <v>4</v>
       </c>
@@ -1170,8 +1225,9 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
       <c r="F19" s="2">
         <v>14</v>
       </c>
@@ -1193,8 +1249,9 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
       <c r="F20" s="2">
         <v>15</v>
       </c>
@@ -1216,8 +1273,9 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
       <c r="F21" s="2">
         <v>16</v>
       </c>
@@ -1239,19 +1297,20 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>44</v>
       </c>
@@ -1259,23 +1318,23 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B24" s="6" t="s">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B24" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="7"/>
-      <c r="F24" s="6" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="F24" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1284,14 +1343,14 @@
       <c r="F25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B26" s="2">
         <v>1</v>
       </c>
@@ -1311,7 +1370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B27" s="2">
         <v>2</v>
       </c>
@@ -1331,7 +1390,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B28" s="2">
         <v>3</v>
       </c>
@@ -1351,7 +1410,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B29" s="2">
         <v>4</v>
       </c>
@@ -1367,23 +1426,23 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B32" s="11" t="s">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B32" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="12"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1438,8 +1497,8 @@
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:O3"/>
     <mergeCell ref="B13:D13"/>
+    <mergeCell ref="J3:P3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FashionShop/src/산출물/쇼핑몰DB.xlsx
+++ b/FashionShop/src/산출물/쇼핑몰DB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
   <si>
     <t>topcategory</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +255,77 @@
   </si>
   <si>
     <t>alter table product add filename varchar(50);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입시 암호화, 가입메일</t>
+  </si>
+  <si>
+    <t>member_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email_server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>haie99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zipcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우편번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,7 +456,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -422,6 +493,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -439,6 +513,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -720,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q37"/>
+  <dimension ref="B1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -749,25 +829,25 @@
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="F3" s="15" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="F3" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="J3" s="16" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="J3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" s="4"/>
@@ -1036,11 +1116,11 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
       <c r="F13" s="2">
         <v>8</v>
       </c>
@@ -1319,16 +1399,16 @@
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="F24" s="12" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="F24" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
@@ -1430,6 +1510,16 @@
       <c r="B31" t="s">
         <v>45</v>
       </c>
+      <c r="F31" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B32" s="7" t="s">
@@ -1437,8 +1527,30 @@
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="F32" s="12"/>
+      <c r="G32" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
         <v>47</v>
       </c>
@@ -1448,8 +1560,32 @@
       <c r="D33" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="F33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B34" s="2">
         <v>1</v>
       </c>
@@ -1459,8 +1595,20 @@
       <c r="D34" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B35" s="2">
         <v>2</v>
       </c>
@@ -1471,7 +1619,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B36" s="2">
         <v>3</v>
       </c>
@@ -1482,7 +1630,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B37" s="2">
         <v>4</v>
       </c>
@@ -1491,14 +1639,71 @@
         <v>38</v>
       </c>
     </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B40" s="20"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B41" s="19"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="F31:M31"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="J3:P3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FashionShop/src/산출물/쇼핑몰DB.xlsx
+++ b/FashionShop/src/산출물/쇼핑몰DB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t>topcategory</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,6 +326,10 @@
   </si>
   <si>
     <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>membe_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -450,13 +454,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -496,6 +513,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -505,19 +537,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -802,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -829,25 +852,25 @@
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="F3" s="16" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="F3" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="J3" s="17" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="J3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" s="4"/>
@@ -1116,11 +1139,11 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
       <c r="F13" s="2">
         <v>8</v>
       </c>
@@ -1399,16 +1422,17 @@
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="F24" s="13" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="F24" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
@@ -1423,10 +1447,13 @@
       <c r="F25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="22" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1446,7 +1473,8 @@
       <c r="G26" s="2">
         <v>4</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="2"/>
+      <c r="I26" s="2">
         <v>32</v>
       </c>
     </row>
@@ -1466,7 +1494,8 @@
       <c r="G27" s="2">
         <v>4</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="2"/>
+      <c r="I27" s="2">
         <v>34</v>
       </c>
     </row>
@@ -1486,7 +1515,8 @@
       <c r="G28" s="2">
         <v>4</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="2"/>
+      <c r="I28" s="2">
         <v>36</v>
       </c>
     </row>
@@ -1502,7 +1532,8 @@
         <v>4</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="2">
+      <c r="H29" s="2"/>
+      <c r="I29" s="2">
         <v>38</v>
       </c>
     </row>
@@ -1510,16 +1541,16 @@
       <c r="B31" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B32" s="7" t="s">
@@ -1640,10 +1671,10 @@
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B40" s="20"/>
+      <c r="B40" s="14"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B41" s="19"/>
+      <c r="B41" s="13"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B42" s="9"/>
@@ -1700,10 +1731,10 @@
     <mergeCell ref="J3:P3"/>
     <mergeCell ref="F31:M31"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="F24:H24"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F24:I24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FashionShop/src/산출물/쇼핑몰DB.xlsx
+++ b/FashionShop/src/산출물/쇼핑몰DB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="134">
   <si>
     <t>topcategory</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,6 +330,234 @@
   </si>
   <si>
     <t>membe_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">주문 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송받는 사람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지불액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 결제 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reveive_addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_summary_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송정보(receiver)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiver_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문요약정보(order_summary)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 방법(paymethod)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 상세정보(order_detail)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_detail_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_summary_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_pay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1관계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연락처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품준비중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송출발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_state_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_state_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인입금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가상계좌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymethod_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상태(order_state)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문요약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매시점 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>색상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">order_summary_id </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiver_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiver_phone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -354,7 +582,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,8 +601,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -467,13 +701,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -495,52 +740,58 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -823,20 +1074,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q47"/>
+  <dimension ref="B1:Q72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:I24"/>
+    <sheetView tabSelected="1" topLeftCell="B41" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.8984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.8984375" customWidth="1"/>
-    <col min="8" max="8" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.8984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.8984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.3984375" bestFit="1" customWidth="1"/>
@@ -847,30 +1099,30 @@
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="F3" s="17" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="F3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="J3" s="15" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="J3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" s="4"/>
@@ -1139,11 +1391,11 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
       <c r="F13" s="2">
         <v>8</v>
       </c>
@@ -1403,15 +1655,15 @@
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
@@ -1422,17 +1674,17 @@
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="F24" s="17" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="F24" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
@@ -1447,13 +1699,13 @@
       <c r="F25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H25" t="s">
         <v>76</v>
       </c>
-      <c r="I25" s="22" t="s">
+      <c r="I25" s="12" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1541,43 +1793,43 @@
       <c r="B31" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="8"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12" t="s">
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="H32" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J32" s="12" t="s">
+      <c r="J32" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="K32" s="12" t="s">
+      <c r="K32" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L32" s="12" t="s">
+      <c r="L32" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="M32" s="12" t="s">
+      <c r="M32" s="9" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1670,64 +1922,347 @@
         <v>38</v>
       </c>
     </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B39" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="22"/>
+    </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B40" s="14"/>
+      <c r="B40" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B41" s="13"/>
+      <c r="B41" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B42" s="9"/>
+      <c r="B42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B43" s="9"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
+      <c r="B46" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B52" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B53" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B54" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B59" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="21"/>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B61" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D66" s="24"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B67" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="22"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B68" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="13">
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B46:F46"/>
     <mergeCell ref="J3:P3"/>
     <mergeCell ref="F31:M31"/>
     <mergeCell ref="B24:D24"/>
